--- a/table_outputs.xlsx
+++ b/table_outputs.xlsx
@@ -1,44 +1,395 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1985751\Documents\GitHub\fea\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B5C9CB4-D095-44FA-B04C-0E2C93B6C037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00E019E9-45AB-4500-8149-DC43D2D04FBF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile_vendor_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stationary small local vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stationary_small_vendor_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supermarket_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio de Janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (28%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Paolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (71%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 (86%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (14%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (88%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94 (67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 (85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74 (62%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108 (90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visakhapatnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103 (46%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 (24%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 (31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176 (78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (26%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (44%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (48%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (27%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (53%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (14%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (18%)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,15 +422,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -94,45 +436,41 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -159,32 +497,11 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -211,23 +528,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -239,153 +539,662 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7378B5C2-ED77-4D21-99A8-A5CBE99BDA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="NA" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/table_outputs.xlsx
+++ b/table_outputs.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table 2 - circle" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -379,6 +380,252 @@
   </si>
   <si>
     <t xml:space="preserve">17 (18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_org_vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org_vendor_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_org_foods_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iqr_org_foods_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (79%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0 (4.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (28%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0 (0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (14%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 (4.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0 (3.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 (1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (36%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0 (1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 (1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (55%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (41%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (17%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (55%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 (3.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0 (2.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (59%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 (2.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (65%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 (2.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0 (6.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00</t>
   </si>
 </sst>
 </file>
@@ -1197,4 +1444,746 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/table_outputs.xlsx
+++ b/table_outputs.xlsx
@@ -9,12 +9,14 @@
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Table 2 - circle" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table 2 - city" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table 2 - country" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -626,6 +628,57 @@
   </si>
   <si>
     <t xml:space="preserve">6.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 (22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71 (59%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 (23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (53%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66 (72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.00)</t>
   </si>
 </sst>
 </file>
@@ -2186,4 +2239,342 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="n">
+        <v>126</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.206349206349206</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="n">
+        <v>487</v>
+      </c>
+      <c r="C3" t="n">
+        <v>155</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.318275154004107</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="n">
+        <v>195</v>
+      </c>
+      <c r="C4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/table_outputs.xlsx
+++ b/table_outputs.xlsx
@@ -1,692 +1,699 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1985751\Documents\GitHub\fea\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03EFDAE-F097-486C-93F5-91D977EDBB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table 2 - circle" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table 2 - city" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table 2 - country" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 2 - circle" sheetId="3" r:id="rId3"/>
+    <sheet name="Table 2 - city" sheetId="4" r:id="rId4"/>
+    <sheet name="Table 2 - country" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
-  <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_vendors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Higher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">higher_perc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">middle_perc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lower_perc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile_vendor_perc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stationary small local vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stationary_small_vendor_perc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supermarket_perc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio de Janeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (23%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (47%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Paolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (71%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 (86%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (14%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (88%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyderabad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (16%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94 (67%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 (85%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74 (62%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108 (90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visakhapatnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103 (46%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54 (24%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69 (31%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176 (78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birmingham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (26%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (44%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (67%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edinburgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (48%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (27%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 (53%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (14%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vendors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count_org_vendors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org_vendor_perc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_org_foods_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iqr_org_foods_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (79%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0 (4.75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0 (0.75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (14%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0 (0.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0 (4.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0 (3.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0 (1.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (36%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0 (1.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5 (1.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (56%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (55%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (41%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (17%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (55%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0 (3.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (47%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0 (2.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (47%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (59%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5 (2.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (65%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0 (2.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0 (6.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (1.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 (22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71 (59%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 (23%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (53%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 (72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.00)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="221">
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>total_vendors</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>higher_perc</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>middle_perc</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>lower_perc</t>
+  </si>
+  <si>
+    <t>Mobile vendor</t>
+  </si>
+  <si>
+    <t>mobile_vendor_perc</t>
+  </si>
+  <si>
+    <t>Stationary small local vendor</t>
+  </si>
+  <si>
+    <t>stationary_small_vendor_perc</t>
+  </si>
+  <si>
+    <t>Supermarket</t>
+  </si>
+  <si>
+    <t>supermarket_perc</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>14 (23%)</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>18 (30%)</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>28 (47%)</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>1 (2%)</t>
+  </si>
+  <si>
+    <t>2%</t>
+  </si>
+  <si>
+    <t>42 (70%)</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>17 (28%)</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>Sao Paolo</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>4 (7%)</t>
+  </si>
+  <si>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>41 (71%)</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>13 (22%)</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>0 (0%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>50 (86%)</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>8 (14%)</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>Sinop</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2 (25%)</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>4 (50%)</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>1 (12%)</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>7 (88%)</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>25 (18%)</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>22 (16%)</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>94 (67%)</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>15 (11%)</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>120 (85%)</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>6 (4%)</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>Latur</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>16 (13%)</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>30 (25%)</t>
+  </si>
+  <si>
+    <t>74 (62%)</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>11 (9%)</t>
+  </si>
+  <si>
+    <t>9%</t>
+  </si>
+  <si>
+    <t>108 (90%)</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>1 (1%)</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>Visakhapatnam</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>103 (46%)</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>54 (24%)</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>69 (31%)</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>30 (13%)</t>
+  </si>
+  <si>
+    <t>176 (78%)</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>20 (9%)</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>11 (26%)</t>
+  </si>
+  <si>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>19 (44%)</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>13 (30%)</t>
+  </si>
+  <si>
+    <t>29 (67%)</t>
+  </si>
+  <si>
+    <t>14 (33%)</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>15 (25%)</t>
+  </si>
+  <si>
+    <t>29 (48%)</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>16 (27%)</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>45 (75%)</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>49 (53%)</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>30 (33%)</t>
+  </si>
+  <si>
+    <t>13 (14%)</t>
+  </si>
+  <si>
+    <t>6 (7%)</t>
+  </si>
+  <si>
+    <t>69 (75%)</t>
+  </si>
+  <si>
+    <t>17 (18%)</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>vendors</t>
+  </si>
+  <si>
+    <t>count_org_vendors</t>
+  </si>
+  <si>
+    <t>org_vendor_perc</t>
+  </si>
+  <si>
+    <t>median_org_foods_count</t>
+  </si>
+  <si>
+    <t>iqr_org_foods_count</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11 (79%)</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>4.0 (4.75)</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>5 (28%)</t>
+  </si>
+  <si>
+    <t>0.0 (0.75)</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>4 (14%)</t>
+  </si>
+  <si>
+    <t>0.0 (0.00)</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2 (50%)</t>
+  </si>
+  <si>
+    <t>1.0 (4.50)</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1 (8%)</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1 (50%)</t>
+  </si>
+  <si>
+    <t>3.0 (3.00)</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>1.0 (1.00)</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>9 (36%)</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>0.0 (1.00)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>11 (50%)</t>
+  </si>
+  <si>
+    <t>0.5 (1.00)</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>11 (12%)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>9 (56%)</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>21 (70%)</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>41 (55%)</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>19 (18%)</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>22 (41%)</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>12 (17%)</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6 (55%)</t>
+  </si>
+  <si>
+    <t>1.0 (3.00)</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>9 (47%)</t>
+  </si>
+  <si>
+    <t>0.0 (2.00)</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2 (15%)</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>7 (47%)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>17 (59%)</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>8 (50%)</t>
+  </si>
+  <si>
+    <t>0.5 (2.00)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>32 (65%)</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>1.0 (2.00)</t>
+  </si>
+  <si>
+    <t>13 (100%)</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3.0 (6.00)</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>20 (33%)</t>
+  </si>
+  <si>
+    <t>0 (1.00)</t>
+  </si>
+  <si>
+    <t>0 (0.00)</t>
+  </si>
+  <si>
+    <t>0 (0.50)</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>31 (22%)</t>
+  </si>
+  <si>
+    <t>71 (59%)</t>
+  </si>
+  <si>
+    <t>1 (1.00)</t>
+  </si>
+  <si>
+    <t>53 (23%)</t>
+  </si>
+  <si>
+    <t>17 (40%)</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>32 (53%)</t>
+  </si>
+  <si>
+    <t>1 (2.25)</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>66 (72%)</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>1 (2.00)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -722,6 +729,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1003,27 +1019,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="NA" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1117,7 +1133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1164,7 +1180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1211,7 +1227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1258,7 +1274,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1305,7 +1321,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1352,7 +1368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -1399,7 +1415,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1446,7 +1462,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -1495,19 +1511,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1549,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1575,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1585,7 +1601,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1627,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1637,7 +1653,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1663,7 +1679,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1689,7 +1705,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +1731,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1757,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1767,7 +1783,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1793,7 +1809,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1819,7 +1835,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1845,7 +1861,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1871,7 +1887,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1897,7 +1913,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1923,7 +1939,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1949,7 +1965,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1975,7 +1991,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2001,7 +2017,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -2027,7 +2043,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -2053,7 +2069,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -2079,7 +2095,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -2105,7 +2121,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -2131,7 +2147,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -2157,7 +2173,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -2183,7 +2199,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -2209,7 +2225,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -2237,19 +2253,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +2290,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2295,7 +2313,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2318,7 +2336,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2341,7 +2359,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2364,7 +2382,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -2387,7 +2405,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2410,7 +2428,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -2433,7 +2451,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2456,7 +2474,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -2481,19 +2499,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2513,68 +2531,68 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>126</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>26</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.206349206349206</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>487</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>155</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.318275154004107</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>195</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>115</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.58974358974358998</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/table_outputs.xlsx
+++ b/table_outputs.xlsx
@@ -7,8 +7,627 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table 2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile_vendor_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stationary small local vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stationary_small_vendor_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supermarket_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio de Janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (28%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Paolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (71%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 (86%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (14%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (88%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94 (67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 (85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74 (62%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108 (90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visakhapatnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103 (46%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 (24%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 (31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176 (78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (26%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (44%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (48%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (27%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (53%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (14%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_org_vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org_vendor_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_org_foods_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iqr_org_foods_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (79%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0 (4.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (28%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0 (0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (14%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 (4.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0 (3.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 (1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (36%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0 (1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 (1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (55%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (41%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (17%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (55%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 (3.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0 (2.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (59%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 (2.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (65%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 (2.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0 (6.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,4 +960,1230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/table_outputs.xlsx
+++ b/table_outputs.xlsx
@@ -9,12 +9,18 @@
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Table 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table 2 - neighbourhood" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table 2 - city" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Table 2 - country" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Table 3 - neighbourhood" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Table 3 - city" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Table 3 - country" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -626,6 +632,72 @@
   </si>
   <si>
     <t xml:space="preserve">6.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 (22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71 (59%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 (23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (53%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66 (72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organic_vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_multiple_org_binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_multiple_org_binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_multiple_org_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iqr_multiple_org_count</t>
   </si>
 </sst>
 </file>
@@ -2186,4 +2258,2164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="n">
+        <v>126</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.206349206349206</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="n">
+        <v>487</v>
+      </c>
+      <c r="C3" t="n">
+        <v>155</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.318275154004107</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="n">
+        <v>195</v>
+      </c>
+      <c r="C4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.909090909090909</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.181818181818182</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0952380952380952</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>41</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.526315789473684</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>22</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.590909090909091</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.764705882352941</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>32</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>21</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.769230769230769</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.225806451612903</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0422535211267606</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="n">
+        <v>53</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.547169811320755</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="n">
+        <v>66</v>
+      </c>
+      <c r="D10" t="n">
+        <v>48</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="n">
+        <v>155</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.251612903225806</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="n">
+        <v>115</v>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.68695652173913</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/table_outputs.xlsx
+++ b/table_outputs.xlsx
@@ -15,12 +15,14 @@
     <sheet name="Table 3 - neighbourhood" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Table 3 - city" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Table 3 - country" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Table 4 - country" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Table 4 - overall" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -698,6 +700,159 @@
   </si>
   <si>
     <t xml:space="preserve">iqr_multiple_org_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org_vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_vendor_cashiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iqr_vendor_cashiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_vendor_cashiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_vendor_cashiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_days_open_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iqr_days_open_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_days_open_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_days_open_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_foods_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iqr_foods_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_foods_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_foods_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(1.0), 1-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7(2), 5-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0(6.00), 1-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3(11.0), 1-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5(7.75), 4-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7(0), 4-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0(5.00), 1-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7(0), 6-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0(6.00), 1-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 1-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7(0), 2-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5(5.00), 1-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(2.5), 1-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0(9.00), 1-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 1-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3(5), 1-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(1), 1-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7(6), 1-14</t>
   </si>
 </sst>
 </file>
@@ -1034,6 +1189,465 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" t="s">
+        <v>259</v>
+      </c>
+      <c r="L4" t="s">
+        <v>260</v>
+      </c>
+      <c r="M4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" t="s">
+        <v>264</v>
+      </c>
+      <c r="L5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" t="s">
+        <v>242</v>
+      </c>
+      <c r="N5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" t="s">
+        <v>267</v>
+      </c>
+      <c r="L6" t="s">
+        <v>260</v>
+      </c>
+      <c r="M6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M7" t="s">
+        <v>242</v>
+      </c>
+      <c r="N7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>

--- a/table_outputs.xlsx
+++ b/table_outputs.xlsx
@@ -17,12 +17,18 @@
     <sheet name="Table 3 - country" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Table 4 - country" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Table 4 - overall" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Table 5 - city" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Table 5 - country" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Table 5 - overall" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Table S1 - city" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Table S1 - country" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Table S1 - overall" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -853,6 +859,429 @@
   </si>
   <si>
     <t xml:space="preserve">7(6), 1-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_org_rice_vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_conv_rice_vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_org_rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iqr_org_rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_org_rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_org_rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_conv_rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iqr_conv_rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_conv_rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_conv_rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88 (0.34), 2.11-4.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23 (0.32), 0.77-3.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83 (0.00), 2.83-2.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14 (0.21), 0.36-1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07 (0.02), 1.03-1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01 (0.29), 0.73-1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69 (0.12), 0.36-1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">— (—), Inf-−Inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">—</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">−Inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61 (0.12), 0.24-0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10 (0.32), 0.61-3.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64 (0.17), 0.36-2.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24 (0.69), 4.54-5.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02 (0.74), 0.69-5.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02 (2.05), 3.46-11.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13 (1.00), 0.51-7.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03 (4.30), 4.75-11.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94 (2.34), 1.64-8.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::rowname::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69 (1.80), 1.03-4.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14 (0.30), 0.36-3.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10 (0.37), 0.61-3.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61 (0.18), 0.24-2.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75 (4.57), 3.46-11.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97 (2.13), 0.51-8.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83 (3.71), 0.61-11.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78 (1.03), 0.24-8.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88 (0.25), 2.11-4.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10 (0.17), 0.88-1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13 (0.00), 1.13-1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30 (0.00), 1.30-1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83 (0.00), 0.83-0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02 (0.45), 0.61-3.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82 (0.38), 0.49-1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09 (0.06), 3.03-3.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97 (0.31), 3.46-4.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10 (0.11), 1.98-2.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62 (5.07), 4.92-11.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93 (1.97), 1.78-8.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68 (1.80), 1.03-4.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08 (0.11), 0.88-1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10 (0.42), 0.61-3.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82 (0.33), 0.49-1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63 (4.64), 3.46-11.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15 (2.02), 1.78-8.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88 (3.74), 0.61-11.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13 (1.56), 0.49-8.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56</t>
   </si>
 </sst>
 </file>
@@ -1648,6 +2077,1250 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K3" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" t="s">
+        <v>313</v>
+      </c>
+      <c r="K5" t="s">
+        <v>301</v>
+      </c>
+      <c r="L5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J6" t="s">
+        <v>313</v>
+      </c>
+      <c r="K6" t="s">
+        <v>319</v>
+      </c>
+      <c r="L6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" t="s">
+        <v>329</v>
+      </c>
+      <c r="I8" t="s">
+        <v>330</v>
+      </c>
+      <c r="J8" t="s">
+        <v>331</v>
+      </c>
+      <c r="K8" t="s">
+        <v>327</v>
+      </c>
+      <c r="L8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G9" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" t="s">
+        <v>337</v>
+      </c>
+      <c r="J9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" t="s">
+        <v>338</v>
+      </c>
+      <c r="L9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" t="s">
+        <v>343</v>
+      </c>
+      <c r="I10" t="s">
+        <v>344</v>
+      </c>
+      <c r="J10" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" t="s">
+        <v>302</v>
+      </c>
+      <c r="L10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J4" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" t="s">
+        <v>346</v>
+      </c>
+      <c r="L4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2" t="s">
+        <v>324</v>
+      </c>
+      <c r="K2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" t="s">
+        <v>375</v>
+      </c>
+      <c r="J3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" t="s">
+        <v>376</v>
+      </c>
+      <c r="L3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" t="s">
+        <v>379</v>
+      </c>
+      <c r="L5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" t="s">
+        <v>383</v>
+      </c>
+      <c r="K6" t="s">
+        <v>384</v>
+      </c>
+      <c r="L6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" t="s">
+        <v>329</v>
+      </c>
+      <c r="I7" t="s">
+        <v>386</v>
+      </c>
+      <c r="J7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H8" t="s">
+        <v>392</v>
+      </c>
+      <c r="I8" t="s">
+        <v>393</v>
+      </c>
+      <c r="J8" t="s">
+        <v>394</v>
+      </c>
+      <c r="K8" t="s">
+        <v>395</v>
+      </c>
+      <c r="L8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" t="s">
+        <v>399</v>
+      </c>
+      <c r="H9" t="s">
+        <v>343</v>
+      </c>
+      <c r="I9" t="s">
+        <v>400</v>
+      </c>
+      <c r="J9" t="s">
+        <v>401</v>
+      </c>
+      <c r="K9" t="s">
+        <v>402</v>
+      </c>
+      <c r="L9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3" t="s">
+        <v>408</v>
+      </c>
+      <c r="I3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J3" t="s">
+        <v>384</v>
+      </c>
+      <c r="K3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H4" t="s">
+        <v>412</v>
+      </c>
+      <c r="I4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K4" t="s">
+        <v>403</v>
+      </c>
+      <c r="L4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>

--- a/table_outputs.xlsx
+++ b/table_outputs.xlsx
@@ -23,12 +23,16 @@
     <sheet name="Table S1 - city" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Table S1 - country" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Table S1 - overall" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Table 6 - overall" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Table 6 - Brazil" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Table 6 - India" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Table 6 - UK" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -1282,6 +1286,282 @@
   </si>
   <si>
     <t xml:space="preserve">1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_organic_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_organic_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_natural_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_natural_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_chemfree_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_chemfree_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_pestfree_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_pestfree_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_bioprod_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_bioprod_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_bio_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_bio_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_eco_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_eco_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_gmo_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_gmo_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beverages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175 (59%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152 (39%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89 (77%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176 (72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73 (28%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (89%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (36%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (93%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (93%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (34%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (21%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 (81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (38%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 (51%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67 (47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135 (77%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 (91%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92 (102%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2%)</t>
   </si>
 </sst>
 </file>
@@ -3321,6 +3601,506 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" t="s">
+        <v>428</v>
+      </c>
+      <c r="L1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" t="s">
+        <v>432</v>
+      </c>
+      <c r="P1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>434</v>
+      </c>
+      <c r="R1" t="s">
+        <v>435</v>
+      </c>
+      <c r="S1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>443</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>444</v>
+      </c>
+      <c r="P2" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>446</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>443</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>456</v>
+      </c>
+      <c r="H4" t="s">
+        <v>457</v>
+      </c>
+      <c r="I4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" t="s">
+        <v>443</v>
+      </c>
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>459</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>460</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>461</v>
+      </c>
+      <c r="R4" t="s">
+        <v>445</v>
+      </c>
+      <c r="S4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" t="s">
+        <v>428</v>
+      </c>
+      <c r="L1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" t="s">
+        <v>432</v>
+      </c>
+      <c r="P1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>434</v>
+      </c>
+      <c r="R1" t="s">
+        <v>435</v>
+      </c>
+      <c r="S1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J2" t="s">
+        <v>468</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>469</v>
+      </c>
+      <c r="P2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>467</v>
+      </c>
+      <c r="J3" t="s">
+        <v>468</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>467</v>
+      </c>
+      <c r="P3" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>477</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>467</v>
+      </c>
+      <c r="N4" t="s">
+        <v>468</v>
+      </c>
+      <c r="O4" t="s">
+        <v>478</v>
+      </c>
+      <c r="P4" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>480</v>
+      </c>
+      <c r="R4" t="s">
+        <v>481</v>
+      </c>
+      <c r="S4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -3797,6 +4577,506 @@
       </c>
       <c r="O10" t="s">
         <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" t="s">
+        <v>428</v>
+      </c>
+      <c r="L1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" t="s">
+        <v>432</v>
+      </c>
+      <c r="P1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>434</v>
+      </c>
+      <c r="R1" t="s">
+        <v>435</v>
+      </c>
+      <c r="S1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H4" t="s">
+        <v>468</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>495</v>
+      </c>
+      <c r="P4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>496</v>
+      </c>
+      <c r="R4" t="s">
+        <v>148</v>
+      </c>
+      <c r="S4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" t="s">
+        <v>428</v>
+      </c>
+      <c r="L1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" t="s">
+        <v>432</v>
+      </c>
+      <c r="P1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>434</v>
+      </c>
+      <c r="R1" t="s">
+        <v>435</v>
+      </c>
+      <c r="S1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>443</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>502</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>443</v>
+      </c>
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>509</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/table_outputs.xlsx
+++ b/table_outputs.xlsx
@@ -8,31 +8,32 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table 2 - neighbourhood" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table 2 - city" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Table 2 - country" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Table 2 - neighbourhood" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table 2 - city" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table 2 - country" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Table 2 - overall" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Table 3 - neighbourhood" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Table 3 - city" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Table 3 - country" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Table 4 - country" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Table 4 - overall" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Table 5 - city" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Table 5 - country" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Table 5 - overall" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Table S1 - city" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Table S1 - country" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Table S1 - overall" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Table 6 - overall" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Table 6 - Brazil" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Table 6 - India" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Table 6 - UK" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Table 3 - overall" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Table 4 - country" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Table 4 - overall" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Table 5 - city" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Table 5 - country" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Table 5 - overall" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Table S1 - city" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Table S1 - country" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Table S1 - overall" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Table 6 - overall" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Table 6 - Brazil" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Table 6 - India" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Table 6 - UK" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -712,6 +713,201 @@
     <t xml:space="preserve">iqr_multiple_org_count</t>
   </si>
   <si>
+    <t xml:space="preserve">10 (91%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 (3.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 (3.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0 (2.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 (0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (—)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">—</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (53%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (59%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0 (0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (76%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (62%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (77%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 (4.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (55%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (53%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (73%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73%</t>
+  </si>
+  <si>
     <t xml:space="preserve">org_vendor</t>
   </si>
   <si>
@@ -760,21 +956,12 @@
     <t xml:space="preserve">1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">7(2), 5-7</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.0(6.00), 1-14</t>
   </si>
   <si>
@@ -787,9 +974,6 @@
     <t xml:space="preserve">11.0</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.5(7.75), 4-14</t>
   </si>
   <si>
@@ -808,9 +992,6 @@
     <t xml:space="preserve">7(0), 4-7</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.0(5.00), 1-11</t>
   </si>
   <si>
@@ -823,9 +1004,6 @@
     <t xml:space="preserve">7(0), 6-7</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.0(6.00), 1-14</t>
   </si>
   <si>
@@ -838,9 +1016,6 @@
     <t xml:space="preserve">2.5(5.00), 1-12</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
     <t xml:space="preserve">1(2.5), 1-30</t>
   </si>
   <si>
@@ -922,9 +1097,6 @@
     <t xml:space="preserve">3.55</t>
   </si>
   <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.83 (0.00), 2.83-2.83</t>
   </si>
   <si>
@@ -979,9 +1151,6 @@
     <t xml:space="preserve">— (—), Inf-−Inf</t>
   </si>
   <si>
-    <t xml:space="preserve">—</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inf</t>
   </si>
   <si>
@@ -1078,9 +1247,6 @@
     <t xml:space="preserve">::rowname::</t>
   </si>
   <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
     <t xml:space="preserve">79</t>
   </si>
   <si>
@@ -1141,15 +1307,9 @@
     <t xml:space="preserve">0.78 (1.03), 0.24-8.80</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.88 (0.25), 2.11-4.61</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.10 (0.17), 0.88-1.34</t>
   </si>
   <si>
@@ -1384,9 +1544,6 @@
     <t xml:space="preserve">89 (77%)</t>
   </si>
   <si>
-    <t xml:space="preserve">77%</t>
-  </si>
-  <si>
     <t xml:space="preserve">24 (25%)</t>
   </si>
   <si>
@@ -1492,9 +1649,6 @@
     <t xml:space="preserve">81%</t>
   </si>
   <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 (38%)</t>
   </si>
   <si>
@@ -1544,9 +1698,6 @@
   </si>
   <si>
     <t xml:space="preserve">52 (91%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91%</t>
   </si>
   <si>
     <t xml:space="preserve">7 (9%)</t>
@@ -1908,310 +2059,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>296</v>
+      </c>
+      <c r="B2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.472972972972973</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M1" t="s">
-        <v>237</v>
-      </c>
-      <c r="N1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K2" t="s">
-        <v>247</v>
-      </c>
-      <c r="L2" t="s">
-        <v>203</v>
-      </c>
-      <c r="M2" t="s">
-        <v>242</v>
-      </c>
-      <c r="N2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K3" t="s">
-        <v>252</v>
-      </c>
-      <c r="L3" t="s">
-        <v>253</v>
-      </c>
-      <c r="M3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" t="s">
-        <v>258</v>
-      </c>
-      <c r="I4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" t="s">
-        <v>246</v>
-      </c>
-      <c r="K4" t="s">
-        <v>259</v>
-      </c>
-      <c r="L4" t="s">
-        <v>260</v>
-      </c>
-      <c r="M4" t="s">
-        <v>242</v>
-      </c>
-      <c r="N4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I5" t="s">
-        <v>263</v>
-      </c>
-      <c r="J5" t="s">
-        <v>246</v>
-      </c>
-      <c r="K5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L5" t="s">
-        <v>203</v>
-      </c>
-      <c r="M5" t="s">
-        <v>242</v>
-      </c>
-      <c r="N5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K6" t="s">
-        <v>267</v>
-      </c>
-      <c r="L6" t="s">
-        <v>260</v>
-      </c>
-      <c r="M6" t="s">
-        <v>242</v>
-      </c>
-      <c r="N6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M7" t="s">
-        <v>242</v>
-      </c>
-      <c r="N7" t="s">
-        <v>128</v>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2230,124 +2107,309 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="J1" t="s">
-        <v>235</v>
+        <v>299</v>
       </c>
       <c r="K1" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="L1" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="M1" t="s">
-        <v>238</v>
+        <v>302</v>
+      </c>
+      <c r="N1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="H2" t="s">
         <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="J2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="L2" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="M2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="E3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K3" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" t="s">
+        <v>314</v>
+      </c>
+      <c r="M3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" t="s">
+        <v>319</v>
+      </c>
+      <c r="L4" t="s">
+        <v>320</v>
+      </c>
+      <c r="M4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" t="s">
+        <v>323</v>
+      </c>
+      <c r="L5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" t="s">
+        <v>237</v>
+      </c>
+      <c r="N5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" t="s">
+        <v>326</v>
+      </c>
+      <c r="L6" t="s">
+        <v>320</v>
+      </c>
+      <c r="M6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" t="s">
         <v>167</v>
       </c>
-      <c r="F3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" t="s">
         <v>141</v>
       </c>
-      <c r="I3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" t="s">
-        <v>276</v>
-      </c>
-      <c r="K3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L3" t="s">
-        <v>242</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="J7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L7" t="s">
+        <v>330</v>
+      </c>
+      <c r="M7" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2367,382 +2429,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="D1" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F1" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="G1" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="H1" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="I1" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="J1" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="K1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="L1" t="s">
-        <v>286</v>
+        <v>302</v>
+      </c>
+      <c r="M1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="G2" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H2" t="s">
-        <v>291</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="J2" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="K2" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="L2" t="s">
-        <v>295</v>
+        <v>237</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="H3" t="s">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="J3" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="K3" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="L3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" t="s">
-        <v>306</v>
-      </c>
-      <c r="I4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J4" t="s">
-        <v>304</v>
-      </c>
-      <c r="K4" t="s">
-        <v>305</v>
-      </c>
-      <c r="L4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H5" t="s">
-        <v>311</v>
-      </c>
-      <c r="I5" t="s">
-        <v>312</v>
-      </c>
-      <c r="J5" t="s">
-        <v>313</v>
-      </c>
-      <c r="K5" t="s">
-        <v>301</v>
-      </c>
-      <c r="L5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" t="s">
-        <v>316</v>
-      </c>
-      <c r="H6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I6" t="s">
-        <v>318</v>
-      </c>
-      <c r="J6" t="s">
-        <v>313</v>
-      </c>
-      <c r="K6" t="s">
-        <v>319</v>
-      </c>
-      <c r="L6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M3" t="s">
         <v>128</v>
-      </c>
-      <c r="D7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H7" t="s">
-        <v>322</v>
-      </c>
-      <c r="I7" t="s">
-        <v>323</v>
-      </c>
-      <c r="J7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" t="s">
-        <v>327</v>
-      </c>
-      <c r="G8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I8" t="s">
-        <v>330</v>
-      </c>
-      <c r="J8" t="s">
-        <v>331</v>
-      </c>
-      <c r="K8" t="s">
-        <v>327</v>
-      </c>
-      <c r="L8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G9" t="s">
-        <v>335</v>
-      </c>
-      <c r="H9" t="s">
-        <v>336</v>
-      </c>
-      <c r="I9" t="s">
-        <v>337</v>
-      </c>
-      <c r="J9" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" t="s">
-        <v>338</v>
-      </c>
-      <c r="L9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E10" t="s">
-        <v>341</v>
-      </c>
-      <c r="F10" t="s">
-        <v>342</v>
-      </c>
-      <c r="G10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" t="s">
-        <v>343</v>
-      </c>
-      <c r="I10" t="s">
-        <v>344</v>
-      </c>
-      <c r="J10" t="s">
-        <v>345</v>
-      </c>
-      <c r="K10" t="s">
-        <v>302</v>
-      </c>
-      <c r="L10" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2764,37 +2569,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="F1" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="G1" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="H1" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="I1" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="J1" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="K1" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="L1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
@@ -2802,113 +2607,341 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G2" t="s">
         <v>348</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>349</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>351</v>
       </c>
-      <c r="F2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>352</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>353</v>
-      </c>
-      <c r="J2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K2" t="s">
-        <v>295</v>
-      </c>
-      <c r="L2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
         <v>355</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" t="s">
         <v>356</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>357</v>
       </c>
-      <c r="F3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>358</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>359</v>
-      </c>
-      <c r="J3" t="s">
-        <v>319</v>
-      </c>
-      <c r="K3" t="s">
-        <v>325</v>
-      </c>
-      <c r="L3" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J4" t="s">
+        <v>361</v>
+      </c>
+      <c r="K4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J5" t="s">
+        <v>370</v>
+      </c>
+      <c r="K5" t="s">
+        <v>358</v>
+      </c>
+      <c r="L5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" t="s">
+        <v>370</v>
+      </c>
+      <c r="K6" t="s">
+        <v>375</v>
+      </c>
+      <c r="L6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H7" t="s">
+        <v>378</v>
+      </c>
+      <c r="I7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" t="s">
-        <v>343</v>
-      </c>
-      <c r="H4" t="s">
-        <v>362</v>
-      </c>
-      <c r="I4" t="s">
-        <v>363</v>
-      </c>
-      <c r="J4" t="s">
-        <v>338</v>
-      </c>
-      <c r="K4" t="s">
-        <v>346</v>
-      </c>
-      <c r="L4" t="s">
-        <v>354</v>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I8" t="s">
+        <v>386</v>
+      </c>
+      <c r="J8" t="s">
+        <v>387</v>
+      </c>
+      <c r="K8" t="s">
+        <v>383</v>
+      </c>
+      <c r="L8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" t="s">
+        <v>390</v>
+      </c>
+      <c r="G9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H9" t="s">
+        <v>392</v>
+      </c>
+      <c r="I9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" t="s">
+        <v>394</v>
+      </c>
+      <c r="L9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" t="s">
+        <v>399</v>
+      </c>
+      <c r="I10" t="s">
+        <v>400</v>
+      </c>
+      <c r="J10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K10" t="s">
+        <v>359</v>
+      </c>
+      <c r="L10" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -2927,72 +2960,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="H1" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="I1" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="J1" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="K1" t="s">
-        <v>347</v>
+        <v>344</v>
+      </c>
+      <c r="L1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>406</v>
       </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="I2" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="J2" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="K2" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="L2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" t="s">
+        <v>413</v>
+      </c>
+      <c r="I3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J3" t="s">
+        <v>375</v>
+      </c>
+      <c r="K3" t="s">
+        <v>381</v>
+      </c>
+      <c r="L3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J4" t="s">
+        <v>394</v>
+      </c>
+      <c r="K4" t="s">
+        <v>402</v>
+      </c>
+      <c r="L4" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3011,344 +3126,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>336</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="D1" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="F1" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="G1" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="H1" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="I1" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="J1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L1" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>420</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F2" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="G2" t="s">
-        <v>290</v>
+        <v>423</v>
       </c>
       <c r="H2" t="s">
-        <v>291</v>
+        <v>362</v>
       </c>
       <c r="I2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
-      </c>
-      <c r="K2" t="s">
-        <v>373</v>
-      </c>
-      <c r="L2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H3" t="s">
-        <v>298</v>
-      </c>
-      <c r="I3" t="s">
-        <v>375</v>
-      </c>
-      <c r="J3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" t="s">
-        <v>376</v>
-      </c>
-      <c r="L3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" t="s">
-        <v>306</v>
-      </c>
-      <c r="I4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J4" t="s">
-        <v>304</v>
-      </c>
-      <c r="K4" t="s">
-        <v>305</v>
-      </c>
-      <c r="L4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" t="s">
-        <v>311</v>
-      </c>
-      <c r="H5" t="s">
-        <v>311</v>
-      </c>
-      <c r="I5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" t="s">
-        <v>379</v>
-      </c>
-      <c r="L5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D6" t="s">
-        <v>369</v>
-      </c>
-      <c r="E6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F6" t="s">
-        <v>381</v>
-      </c>
-      <c r="G6" t="s">
-        <v>321</v>
-      </c>
-      <c r="H6" t="s">
-        <v>322</v>
-      </c>
-      <c r="I6" t="s">
-        <v>382</v>
-      </c>
-      <c r="J6" t="s">
-        <v>383</v>
-      </c>
-      <c r="K6" t="s">
-        <v>384</v>
-      </c>
-      <c r="L6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H7" t="s">
-        <v>329</v>
-      </c>
-      <c r="I7" t="s">
-        <v>386</v>
-      </c>
-      <c r="J7" t="s">
-        <v>387</v>
-      </c>
-      <c r="K7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G8" t="s">
-        <v>335</v>
-      </c>
-      <c r="H8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I8" t="s">
-        <v>393</v>
-      </c>
-      <c r="J8" t="s">
-        <v>394</v>
-      </c>
-      <c r="K8" t="s">
-        <v>395</v>
-      </c>
-      <c r="L8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F9" t="s">
-        <v>398</v>
-      </c>
-      <c r="G9" t="s">
-        <v>399</v>
-      </c>
-      <c r="H9" t="s">
-        <v>343</v>
-      </c>
-      <c r="I9" t="s">
-        <v>400</v>
-      </c>
-      <c r="J9" t="s">
-        <v>401</v>
-      </c>
-      <c r="K9" t="s">
         <v>402</v>
-      </c>
-      <c r="L9" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3370,37 +3207,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="F1" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="G1" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="H1" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="I1" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="J1" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="K1" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="L1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
@@ -3408,113 +3245,303 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="F2" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H2" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="I2" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="J2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K2" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="L2" t="s">
-        <v>354</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
-        <v>406</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="H3" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="I3" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="J3" t="s">
-        <v>384</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="L3" t="s">
-        <v>354</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J4" t="s">
+        <v>361</v>
+      </c>
+      <c r="K4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G6" t="s">
+        <v>377</v>
+      </c>
+      <c r="H6" t="s">
+        <v>378</v>
+      </c>
+      <c r="I6" t="s">
+        <v>435</v>
+      </c>
+      <c r="J6" t="s">
+        <v>436</v>
+      </c>
+      <c r="K6" t="s">
+        <v>437</v>
+      </c>
+      <c r="L6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>94</v>
       </c>
-      <c r="B4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" t="s">
-        <v>343</v>
-      </c>
-      <c r="H4" t="s">
-        <v>412</v>
-      </c>
-      <c r="I4" t="s">
-        <v>413</v>
-      </c>
-      <c r="J4" t="s">
-        <v>402</v>
-      </c>
-      <c r="K4" t="s">
-        <v>403</v>
-      </c>
-      <c r="L4" t="s">
-        <v>354</v>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H7" t="s">
+        <v>385</v>
+      </c>
+      <c r="I7" t="s">
+        <v>439</v>
+      </c>
+      <c r="J7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H8" t="s">
+        <v>445</v>
+      </c>
+      <c r="I8" t="s">
+        <v>446</v>
+      </c>
+      <c r="J8" t="s">
+        <v>447</v>
+      </c>
+      <c r="K8" t="s">
+        <v>448</v>
+      </c>
+      <c r="L8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" t="s">
+        <v>451</v>
+      </c>
+      <c r="G9" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" t="s">
+        <v>399</v>
+      </c>
+      <c r="I9" t="s">
+        <v>453</v>
+      </c>
+      <c r="J9" t="s">
+        <v>454</v>
+      </c>
+      <c r="K9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L9" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -3533,66 +3560,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="H1" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="I1" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="J1" t="s">
-        <v>286</v>
+        <v>343</v>
+      </c>
+      <c r="K1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>406</v>
       </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
-        <v>416</v>
+        <v>349</v>
       </c>
       <c r="H2" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="I2" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="J2" t="s">
-        <v>403</v>
+        <v>426</v>
+      </c>
+      <c r="K2" t="s">
+        <v>427</v>
+      </c>
+      <c r="L2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I3" t="s">
+        <v>462</v>
+      </c>
+      <c r="J3" t="s">
+        <v>437</v>
+      </c>
+      <c r="K3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I4" t="s">
+        <v>466</v>
+      </c>
+      <c r="J4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K4" t="s">
+        <v>456</v>
+      </c>
+      <c r="L4" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3611,238 +3726,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>419</v>
+        <v>336</v>
       </c>
       <c r="C1" t="s">
-        <v>420</v>
+        <v>337</v>
       </c>
       <c r="D1" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="E1" t="s">
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="F1" t="s">
-        <v>423</v>
+        <v>340</v>
       </c>
       <c r="G1" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="H1" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="I1" t="s">
-        <v>426</v>
+        <v>343</v>
       </c>
       <c r="J1" t="s">
-        <v>427</v>
-      </c>
-      <c r="K1" t="s">
-        <v>428</v>
-      </c>
-      <c r="L1" t="s">
-        <v>429</v>
-      </c>
-      <c r="M1" t="s">
-        <v>430</v>
-      </c>
-      <c r="N1" t="s">
-        <v>431</v>
-      </c>
-      <c r="O1" t="s">
-        <v>432</v>
-      </c>
-      <c r="P1" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>434</v>
-      </c>
-      <c r="R1" t="s">
-        <v>435</v>
-      </c>
-      <c r="S1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I2" t="s">
         <v>437</v>
       </c>
-      <c r="C2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G2" t="s">
-        <v>441</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>442</v>
-      </c>
       <c r="J2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>443</v>
-      </c>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>444</v>
-      </c>
-      <c r="P2" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>446</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>443</v>
-      </c>
-      <c r="J3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" t="s">
-        <v>455</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
         <v>456</v>
-      </c>
-      <c r="H4" t="s">
-        <v>457</v>
-      </c>
-      <c r="I4" t="s">
-        <v>458</v>
-      </c>
-      <c r="J4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" t="s">
-        <v>443</v>
-      </c>
-      <c r="L4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" t="s">
-        <v>459</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>460</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>461</v>
-      </c>
-      <c r="R4" t="s">
-        <v>445</v>
-      </c>
-      <c r="S4" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3861,93 +3804,93 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="D1" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="H1" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="I1" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="N1" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="O1" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="P1" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="Q1" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="R1" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="S1" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>493</v>
       </c>
       <c r="G2" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="H2" t="s">
-        <v>457</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="J2" t="s">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
@@ -3956,45 +3899,45 @@
         <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>496</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>498</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>499</v>
       </c>
       <c r="R2" t="s">
         <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>501</v>
       </c>
       <c r="C3" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="D3" t="s">
-        <v>471</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>503</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -4003,10 +3946,10 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="J3" t="s">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
@@ -4021,78 +3964,78 @@
         <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="C4" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="D4" t="s">
-        <v>471</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>508</v>
+      </c>
+      <c r="H4" t="s">
+        <v>509</v>
+      </c>
+      <c r="I4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J4" t="s">
         <v>148</v>
       </c>
-      <c r="G4" t="s">
-        <v>475</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
       <c r="K4" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>511</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>512</v>
+      </c>
+      <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
-        <v>467</v>
-      </c>
-      <c r="N4" t="s">
-        <v>468</v>
-      </c>
-      <c r="O4" t="s">
-        <v>478</v>
-      </c>
-      <c r="P4" t="s">
-        <v>479</v>
-      </c>
       <c r="Q4" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="R4" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="S4" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4595,93 +4538,93 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="D1" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="H1" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="I1" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="N1" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="O1" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="P1" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="Q1" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="R1" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="S1" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>518</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>509</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>519</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>520</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
@@ -4696,10 +4639,10 @@
         <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>521</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="Q2" t="s">
         <v>38</v>
@@ -4708,27 +4651,27 @@
         <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="D3" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -4737,10 +4680,10 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>519</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>520</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
@@ -4755,10 +4698,10 @@
         <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>519</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>520</v>
       </c>
       <c r="Q3" t="s">
         <v>38</v>
@@ -4767,66 +4710,66 @@
         <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="B4" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="C4" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="D4" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="E4" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="G4" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="H4" t="s">
-        <v>468</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>528</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>529</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>519</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>520</v>
       </c>
       <c r="O4" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>531</v>
       </c>
       <c r="Q4" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="R4" t="s">
-        <v>148</v>
+        <v>533</v>
       </c>
       <c r="S4" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4845,81 +4788,331 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="D1" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="H1" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="I1" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="N1" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="O1" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="P1" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="Q1" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="R1" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="S1" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C2" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="D2" t="s">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="F2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>500</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>545</v>
+      </c>
+      <c r="H4" t="s">
+        <v>520</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>546</v>
+      </c>
+      <c r="P4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>547</v>
+      </c>
+      <c r="R4" t="s">
+        <v>148</v>
+      </c>
+      <c r="S4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J1" t="s">
+        <v>480</v>
+      </c>
+      <c r="K1" t="s">
+        <v>481</v>
+      </c>
+      <c r="L1" t="s">
+        <v>482</v>
+      </c>
+      <c r="M1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N1" t="s">
+        <v>484</v>
+      </c>
+      <c r="O1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>487</v>
+      </c>
+      <c r="R1" t="s">
+        <v>488</v>
+      </c>
+      <c r="S1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F2" t="s">
+        <v>551</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -4928,7 +5121,7 @@
         <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
@@ -4940,42 +5133,42 @@
         <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="N2" t="s">
         <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="P2" t="s">
         <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="R2" t="s">
         <v>81</v>
       </c>
       <c r="S2" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="D3" t="s">
-        <v>504</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="F3" t="s">
         <v>77</v>
@@ -5017,30 +5210,30 @@
         <v>81</v>
       </c>
       <c r="S3" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="C4" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="D4" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="E4" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -5076,7 +5269,7 @@
         <v>81</v>
       </c>
       <c r="S4" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5843,21 +6036,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5869,22 +6059,19 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3">
@@ -5892,25 +6079,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -5918,649 +6102,160 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H9" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>185</v>
-      </c>
-      <c r="H21" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6582,21 +6277,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6604,207 +6296,60 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" t="s">
-        <v>154</v>
+      <c r="B2" t="n">
+        <v>126</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.206349206349206</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" t="s">
-        <v>140</v>
+        <v>54</v>
+      </c>
+      <c r="B3" t="n">
+        <v>487</v>
+      </c>
+      <c r="C3" t="n">
+        <v>155</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.318275154004107</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" t="s">
-        <v>186</v>
+      <c r="B4" t="n">
+        <v>195</v>
+      </c>
+      <c r="C4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58974358974359</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6823,82 +6368,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>808</v>
+      </c>
+      <c r="B2" t="n">
+        <v>296</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.366336633663366</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="n">
-        <v>126</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.206349206349206</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="n">
-        <v>487</v>
-      </c>
-      <c r="C3" t="n">
-        <v>155</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.318275154004107</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="n">
-        <v>195</v>
-      </c>
-      <c r="C4" t="n">
-        <v>115</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.58974358974359</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6951,20 +6450,20 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.909090909090909</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.5</v>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="3">
@@ -6977,20 +6476,20 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -7003,20 +6502,20 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -7029,20 +6528,20 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.75</v>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="6">
@@ -7055,20 +6554,20 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -7081,20 +6580,20 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8">
@@ -7107,20 +6606,20 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9">
@@ -7133,20 +6632,20 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5</v>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10">
@@ -7159,20 +6658,20 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -7185,20 +6684,20 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -7211,20 +6710,20 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="n">
-        <v>11</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.181818181818182</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -7237,20 +6736,20 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -7263,20 +6762,20 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="n">
-        <v>9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.111111111111111</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -7289,20 +6788,20 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="n">
-        <v>21</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0952380952380952</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
+      <c r="D15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -7315,20 +6814,20 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
-        <v>41</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -7341,20 +6840,20 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="n">
-        <v>19</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.526315789473684</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
+      <c r="D17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -7367,20 +6866,20 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="n">
-        <v>22</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.590909090909091</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -7393,20 +6892,20 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="n">
-        <v>12</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+      <c r="D19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="20">
@@ -7419,20 +6918,20 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" t="n">
-        <v>6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5</v>
+      <c r="D20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>257</v>
+      </c>
+      <c r="H20" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="21">
@@ -7445,20 +6944,20 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" t="n">
-        <v>9</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
+      <c r="D21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="22">
@@ -7471,20 +6970,20 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="23">
@@ -7497,20 +6996,20 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="n">
-        <v>7</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.5</v>
+      <c r="D23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="24">
@@ -7523,20 +7022,20 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="n">
-        <v>17</v>
-      </c>
-      <c r="E24" t="n">
-        <v>13</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.764705882352941</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
+      <c r="D24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="25">
@@ -7549,20 +7048,20 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" t="n">
-        <v>8</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="26">
@@ -7575,20 +7074,20 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="n">
-        <v>32</v>
-      </c>
-      <c r="E26" t="n">
-        <v>24</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
+      <c r="D26" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="27">
@@ -7601,20 +7100,20 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="n">
-        <v>21</v>
-      </c>
-      <c r="E27" t="n">
-        <v>14</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
+      <c r="D27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" t="s">
+        <v>268</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="28">
@@ -7627,20 +7126,20 @@
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="n">
-        <v>13</v>
-      </c>
-      <c r="E28" t="n">
-        <v>10</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.769230769230769</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>269</v>
+      </c>
+      <c r="F28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" t="s">
+        <v>271</v>
+      </c>
+      <c r="H28" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -7687,20 +7186,20 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3">
@@ -7710,20 +7209,20 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -7733,20 +7232,20 @@
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.25</v>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="5">
@@ -7756,20 +7255,20 @@
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.225806451612903</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -7779,20 +7278,20 @@
       <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="n">
-        <v>71</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0422535211267606</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -7802,20 +7301,20 @@
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" t="n">
-        <v>53</v>
-      </c>
-      <c r="D7" t="n">
-        <v>29</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.547169811320755</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8">
@@ -7825,20 +7324,20 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="n">
-        <v>17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.529411764705882</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -7848,20 +7347,20 @@
       <c r="B9" t="s">
         <v>105</v>
       </c>
-      <c r="C9" t="n">
-        <v>32</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -7871,20 +7370,20 @@
       <c r="B10" t="s">
         <v>113</v>
       </c>
-      <c r="C10" t="n">
-        <v>66</v>
-      </c>
-      <c r="D10" t="n">
-        <v>48</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.727272727272727</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/table_outputs.xlsx
+++ b/table_outputs.xlsx
@@ -7,13 +7,69 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table 10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table 11a" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table 11b" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table 11c" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">promo_count_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_count_Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_count_India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_count_UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_count_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_count_Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_count_India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_count_UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_type_digital_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_type_exterior_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_type_large_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_type_reps_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_type_shelf_count</t>
+  </si>
   <si>
     <t xml:space="preserve">theme</t>
   </si>
@@ -21,46 +77,31 @@
     <t xml:space="preserve">theme_count_Overall</t>
   </si>
   <si>
-    <t xml:space="preserve">perc_Overall</t>
-  </si>
-  <si>
     <t xml:space="preserve">theme_count_Brazil</t>
   </si>
   <si>
-    <t xml:space="preserve">perc_Brazil</t>
-  </si>
-  <si>
     <t xml:space="preserve">theme_count_India</t>
   </si>
   <si>
-    <t xml:space="preserve">perc_India</t>
-  </si>
-  <si>
     <t xml:space="preserve">theme_count_UK</t>
   </si>
   <si>
-    <t xml:space="preserve">perc_UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theme_env_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theme_health_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theme_life_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theme_qual_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theme_sj_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theme_taste_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theme_trad_count</t>
+    <t xml:space="preserve">promo_theme_env_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_theme_health_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_theme_qual_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_theme_sj_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_theme_taste_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_theme_trad_count</t>
   </si>
 </sst>
 </file>
@@ -430,211 +471,436 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="G2" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>17.39</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>16.29</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>43.27</v>
+        <v>6.82</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>13.04</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>59.47</v>
+        <v>11.11</v>
       </c>
       <c r="H3" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>38.81</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>9.99</v>
+        <v>34.09</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="n">
         <v>8</v>
       </c>
-      <c r="E4" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16</v>
-      </c>
       <c r="G4" t="n">
-        <v>6.06</v>
+        <v>44.44</v>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>13.43</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>30.1</v>
+        <v>2.27</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>17.39</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>14.77</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>45.67</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>26.05</v>
+        <v>61.36</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>13.04</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>18.56</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>35.52</v>
+        <v>68.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>34.09</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>36.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>26.34</v>
+        <v>6.82</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>8.7</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>47.76</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>91</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="F8" t="n">
-        <v>14</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>71</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21.19</v>
+        <v>13.64</v>
       </c>
     </row>
   </sheetData>
